--- a/timonel-bootloader/tml-t85-std/Nicebots-Timonel-Features-Calculator.xlsx
+++ b/timonel-bootloader/tml-t85-std/Nicebots-Timonel-Features-Calculator.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF2343E-8B62-48BE-8011-F868BDA97AB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33AD47B-3AD8-47FB-A4D3-ADBF951AA5C5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="60" windowWidth="10035" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12375" yWindow="2805" windowWidth="8820" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Timonel Features" sheetId="1" r:id="rId1"/>
@@ -675,7 +675,7 @@
   <dimension ref="B2:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
     </row>
     <row r="4" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="11">
         <v>0</v>
@@ -705,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="F4" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="11">
         <v>0</v>
       </c>
       <c r="H4" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="12">
         <v>0</v>
@@ -991,7 +991,7 @@
     <row r="15" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <f>B4*(2^7)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C15" s="7">
         <f>C4*(2^6)</f>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="F15" s="7">
         <f>F4*(2^3)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7">
         <f>G4*(2^2)</f>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="H15" s="7">
         <f>H4*(2^1)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="8">
         <f>I4*(2^0)</f>
@@ -1026,7 +1026,7 @@
       </c>
       <c r="K15" s="1">
         <f>SUM(B15:I15)</f>
-        <v>34</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
